--- a/Code/Results/Cases/Case_8_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034103146524269</v>
+        <v>1.026059731261686</v>
       </c>
       <c r="D2">
-        <v>1.045348444759272</v>
+        <v>1.038223238567446</v>
       </c>
       <c r="E2">
-        <v>1.042134445866072</v>
+        <v>1.035909899159467</v>
       </c>
       <c r="F2">
-        <v>1.04580643135373</v>
+        <v>1.040728376312914</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062233075332132</v>
+        <v>1.057520441374346</v>
       </c>
       <c r="J2">
-        <v>1.055309577819702</v>
+        <v>1.04748798877976</v>
       </c>
       <c r="K2">
-        <v>1.056210187496368</v>
+        <v>1.049174558550143</v>
       </c>
       <c r="L2">
-        <v>1.053036405489838</v>
+        <v>1.046890633161469</v>
       </c>
       <c r="M2">
-        <v>1.056662468358438</v>
+        <v>1.051648027575226</v>
       </c>
       <c r="N2">
-        <v>1.056808238465907</v>
+        <v>1.036222743668885</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053416819971713</v>
+        <v>1.049448285301593</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050815628204137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045849611746321</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024683259091779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038738279421529</v>
+        <v>1.03004806162763</v>
       </c>
       <c r="D3">
-        <v>1.048557466619607</v>
+        <v>1.040840727445502</v>
       </c>
       <c r="E3">
-        <v>1.045899163375414</v>
+        <v>1.03911336181774</v>
       </c>
       <c r="F3">
-        <v>1.049351639235017</v>
+        <v>1.043831979756387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063799653457705</v>
+        <v>1.058692680809712</v>
       </c>
       <c r="J3">
-        <v>1.058225854322341</v>
+        <v>1.049751804415693</v>
       </c>
       <c r="K3">
-        <v>1.058604572613357</v>
+        <v>1.050976408697403</v>
       </c>
       <c r="L3">
-        <v>1.055976600116628</v>
+        <v>1.049269093094745</v>
       </c>
       <c r="M3">
-        <v>1.059389720627045</v>
+        <v>1.05393313451221</v>
       </c>
       <c r="N3">
-        <v>1.059728656415681</v>
+        <v>1.037491916195068</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055575216421943</v>
+        <v>1.051256769948208</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052505993522483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047120738342838</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025102447310462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04167612619833</v>
+        <v>1.032580641403607</v>
       </c>
       <c r="D4">
-        <v>1.050594361183326</v>
+        <v>1.04250581637697</v>
       </c>
       <c r="E4">
-        <v>1.048290381245285</v>
+        <v>1.0411530901451</v>
       </c>
       <c r="F4">
-        <v>1.051607061216538</v>
+        <v>1.045810987812878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064782303964844</v>
+        <v>1.059427014034993</v>
       </c>
       <c r="J4">
-        <v>1.060070663846397</v>
+        <v>1.051186117745171</v>
       </c>
       <c r="K4">
-        <v>1.060118222384458</v>
+        <v>1.052116934704094</v>
       </c>
       <c r="L4">
-        <v>1.057838929111915</v>
+        <v>1.050778963765673</v>
       </c>
       <c r="M4">
-        <v>1.061120113450739</v>
+        <v>1.055386250841687</v>
       </c>
       <c r="N4">
-        <v>1.061576085780863</v>
+        <v>1.038296035077161</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056944677218602</v>
+        <v>1.052406796381479</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053577118987212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047928136331403</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025365330322254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042903440052617</v>
+        <v>1.033638783963909</v>
       </c>
       <c r="D5">
-        <v>1.051448650540515</v>
+        <v>1.043204829722745</v>
       </c>
       <c r="E5">
-        <v>1.049291872983475</v>
+        <v>1.042007555394062</v>
       </c>
       <c r="F5">
-        <v>1.05255131840071</v>
+        <v>1.046639716724402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.065192473447783</v>
+        <v>1.059733343291612</v>
       </c>
       <c r="J5">
-        <v>1.060842704559843</v>
+        <v>1.051786492476985</v>
       </c>
       <c r="K5">
-        <v>1.060753346109811</v>
+        <v>1.052596095294112</v>
       </c>
       <c r="L5">
-        <v>1.05861905678058</v>
+        <v>1.051411533189465</v>
       </c>
       <c r="M5">
-        <v>1.061844560166156</v>
+        <v>1.055994709261134</v>
       </c>
       <c r="N5">
-        <v>1.062349222880677</v>
+        <v>1.038632621643477</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057518015307659</v>
+        <v>1.052888342485224</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054033227593508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048274722139985</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025476576824033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043116521496303</v>
+        <v>1.033821428916567</v>
       </c>
       <c r="D6">
-        <v>1.051600271376372</v>
+        <v>1.043328724970638</v>
       </c>
       <c r="E6">
-        <v>1.049467471343728</v>
+        <v>1.042156265984957</v>
       </c>
       <c r="F6">
-        <v>1.052715440110358</v>
+        <v>1.046782790689225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065266173870846</v>
+        <v>1.059788462878074</v>
       </c>
       <c r="J6">
-        <v>1.060979422505327</v>
+        <v>1.051892382123451</v>
       </c>
       <c r="K6">
-        <v>1.060868128578396</v>
+        <v>1.052683045679804</v>
       </c>
       <c r="L6">
-        <v>1.058757463726453</v>
+        <v>1.051522978400658</v>
       </c>
       <c r="M6">
-        <v>1.061971767146187</v>
+        <v>1.05610080258761</v>
       </c>
       <c r="N6">
-        <v>1.062486134981325</v>
+        <v>1.038691986200233</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057618688791584</v>
+        <v>1.052972306823941</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054122967420734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048345699349283</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025498426043849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041713789909448</v>
+        <v>1.032642479667943</v>
       </c>
       <c r="D7">
-        <v>1.050629355616401</v>
+        <v>1.042560101941264</v>
       </c>
       <c r="E7">
-        <v>1.048325654862976</v>
+        <v>1.041211785374062</v>
       </c>
       <c r="F7">
-        <v>1.051636254012699</v>
+        <v>1.045858142382615</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064802008884061</v>
+        <v>1.059460216280704</v>
       </c>
       <c r="J7">
-        <v>1.060101741235828</v>
+        <v>1.05124070581967</v>
       </c>
       <c r="K7">
-        <v>1.060150033398252</v>
+        <v>1.05216779073335</v>
       </c>
       <c r="L7">
-        <v>1.057871006106828</v>
+        <v>1.050834174514413</v>
       </c>
       <c r="M7">
-        <v>1.061146189117784</v>
+        <v>1.055430069382578</v>
       </c>
       <c r="N7">
-        <v>1.061607207303752</v>
+        <v>1.038377890011804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05696531390339</v>
+        <v>1.052441475257182</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053619355469461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047985943191949</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025388724956633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035709826701128</v>
+        <v>1.027539903750745</v>
       </c>
       <c r="D8">
-        <v>1.046471230017918</v>
+        <v>1.039221011420053</v>
       </c>
       <c r="E8">
-        <v>1.043444502246756</v>
+        <v>1.037120806117995</v>
       </c>
       <c r="F8">
-        <v>1.047034080077322</v>
+        <v>1.041875956675164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062787094104261</v>
+        <v>1.057993209932672</v>
       </c>
       <c r="J8">
-        <v>1.056330545904697</v>
+        <v>1.048378314602362</v>
       </c>
       <c r="K8">
-        <v>1.057056468004372</v>
+        <v>1.049894678182983</v>
       </c>
       <c r="L8">
-        <v>1.054066470636176</v>
+        <v>1.047820375928741</v>
       </c>
       <c r="M8">
-        <v>1.057612516756193</v>
+        <v>1.052517064288316</v>
       </c>
       <c r="N8">
-        <v>1.057830656442689</v>
+        <v>1.036877390297569</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05416870604239</v>
+        <v>1.050136060874278</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051436524294608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046383683826517</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024879925993641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024600293179674</v>
+        <v>1.018036965948288</v>
       </c>
       <c r="D9">
-        <v>1.038788556590892</v>
+        <v>1.03299739314843</v>
       </c>
       <c r="E9">
-        <v>1.034446941981878</v>
+        <v>1.029522765100807</v>
       </c>
       <c r="F9">
-        <v>1.038586767107166</v>
+        <v>1.034529937725993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058967071994373</v>
+        <v>1.05514320560999</v>
       </c>
       <c r="J9">
-        <v>1.049313288780693</v>
+        <v>1.042968484531962</v>
       </c>
       <c r="K9">
-        <v>1.051282172061121</v>
+        <v>1.045576871541217</v>
       </c>
       <c r="L9">
-        <v>1.047004813889745</v>
+        <v>1.042154350520809</v>
       </c>
       <c r="M9">
-        <v>1.051083353967832</v>
+        <v>1.047086574857537</v>
       </c>
       <c r="N9">
-        <v>1.050803434008678</v>
+        <v>1.033863503096697</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049001389326204</v>
+        <v>1.045838236618496</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047350698139275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043327353890239</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023862279941117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01697015235484</v>
+        <v>1.011683655207402</v>
       </c>
       <c r="D10">
-        <v>1.033552558201124</v>
+        <v>1.028899919745446</v>
       </c>
       <c r="E10">
-        <v>1.028360785927752</v>
+        <v>1.024561842084058</v>
       </c>
       <c r="F10">
-        <v>1.032930706332686</v>
+        <v>1.02975847923462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056323395840657</v>
+        <v>1.053256381032033</v>
       </c>
       <c r="J10">
-        <v>1.044526280472219</v>
+        <v>1.0394412654832</v>
       </c>
       <c r="K10">
-        <v>1.047341331707078</v>
+        <v>1.042766272212275</v>
       </c>
       <c r="L10">
-        <v>1.042236186526818</v>
+        <v>1.038501347722998</v>
       </c>
       <c r="M10">
-        <v>1.04672979661214</v>
+        <v>1.043610447942871</v>
       </c>
       <c r="N10">
-        <v>1.046009627599329</v>
+        <v>1.03211578385481</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045606869843256</v>
+        <v>1.043138279409362</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044580930067157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041358450520626</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023243004242524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014723492044051</v>
+        <v>1.009899107357507</v>
       </c>
       <c r="D11">
-        <v>1.032167233171455</v>
+        <v>1.027915533947113</v>
       </c>
       <c r="E11">
-        <v>1.027075577974024</v>
+        <v>1.023651763468778</v>
       </c>
       <c r="F11">
-        <v>1.032052619185921</v>
+        <v>1.029185279709435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055775127262949</v>
+        <v>1.05297960262219</v>
       </c>
       <c r="J11">
-        <v>1.043496329841785</v>
+        <v>1.038865792631045</v>
       </c>
       <c r="K11">
-        <v>1.04650699130266</v>
+        <v>1.042329530785046</v>
       </c>
       <c r="L11">
-        <v>1.041504335484685</v>
+        <v>1.038141013352846</v>
       </c>
       <c r="M11">
-        <v>1.046394368202579</v>
+        <v>1.043577022365884</v>
       </c>
       <c r="N11">
-        <v>1.044978214320862</v>
+        <v>1.032231621247705</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045773984012596</v>
+        <v>1.043545498295002</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044023474813167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041085420131886</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023344777926811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014297428032052</v>
+        <v>1.009514645104035</v>
       </c>
       <c r="D12">
-        <v>1.031983148326394</v>
+        <v>1.027764394308515</v>
       </c>
       <c r="E12">
-        <v>1.027108748142138</v>
+        <v>1.023682141836977</v>
       </c>
       <c r="F12">
-        <v>1.032312362535973</v>
+        <v>1.029453314641562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055797617482323</v>
+        <v>1.053027401255373</v>
       </c>
       <c r="J12">
-        <v>1.043508783164584</v>
+        <v>1.038921716220666</v>
       </c>
       <c r="K12">
-        <v>1.046522224598603</v>
+        <v>1.042378326636949</v>
       </c>
       <c r="L12">
-        <v>1.041734385711848</v>
+        <v>1.038369271655149</v>
       </c>
       <c r="M12">
-        <v>1.046845630716925</v>
+        <v>1.044037183810956</v>
       </c>
       <c r="N12">
-        <v>1.044990685328809</v>
+        <v>1.032453441491535</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046454737899913</v>
+        <v>1.044234032881976</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044034245003882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041119919138377</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023475679566129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015271783830857</v>
+        <v>1.010184417466252</v>
       </c>
       <c r="D13">
-        <v>1.032739661641264</v>
+        <v>1.028254335058666</v>
       </c>
       <c r="E13">
-        <v>1.028187345540877</v>
+        <v>1.024444794858931</v>
       </c>
       <c r="F13">
-        <v>1.033497927501095</v>
+        <v>1.030402639719101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056282916801887</v>
+        <v>1.053337110053315</v>
       </c>
       <c r="J13">
-        <v>1.044353276252808</v>
+        <v>1.039472853279364</v>
       </c>
       <c r="K13">
-        <v>1.047223376584986</v>
+        <v>1.042817246562693</v>
       </c>
       <c r="L13">
-        <v>1.042751446661666</v>
+        <v>1.039075678187615</v>
       </c>
       <c r="M13">
-        <v>1.047968341898947</v>
+        <v>1.044927507449423</v>
       </c>
       <c r="N13">
-        <v>1.045836377694082</v>
+        <v>1.032720094644036</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0476170793604</v>
+        <v>1.045213216386282</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044527509432482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041427527142991</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023647314644333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016582143628574</v>
+        <v>1.011138509816574</v>
       </c>
       <c r="D14">
-        <v>1.033691732520182</v>
+        <v>1.028896942409661</v>
       </c>
       <c r="E14">
-        <v>1.029407807266982</v>
+        <v>1.025318650657239</v>
       </c>
       <c r="F14">
-        <v>1.034739966733411</v>
+        <v>1.031380648646672</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056829243500173</v>
+        <v>1.05367766566201</v>
       </c>
       <c r="J14">
-        <v>1.045315687299896</v>
+        <v>1.040090147635953</v>
       </c>
       <c r="K14">
-        <v>1.048021237696113</v>
+        <v>1.043310014735805</v>
       </c>
       <c r="L14">
-        <v>1.043811927859212</v>
+        <v>1.039794748678849</v>
       </c>
       <c r="M14">
-        <v>1.049051335955495</v>
+        <v>1.04575030751112</v>
       </c>
       <c r="N14">
-        <v>1.046800155475246</v>
+        <v>1.032932376598001</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048645327405464</v>
+        <v>1.046036121957389</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04509301665932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041777467288993</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023792565484406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017219199825394</v>
+        <v>1.011617037055465</v>
       </c>
       <c r="D15">
-        <v>1.034141429389779</v>
+        <v>1.029209667805007</v>
       </c>
       <c r="E15">
-        <v>1.029951002085777</v>
+        <v>1.025714089114097</v>
       </c>
       <c r="F15">
-        <v>1.035267810446157</v>
+        <v>1.031794490152408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057071850494041</v>
+        <v>1.053828631897471</v>
       </c>
       <c r="J15">
-        <v>1.045745912914062</v>
+        <v>1.040366178370669</v>
       </c>
       <c r="K15">
-        <v>1.048378467948404</v>
+        <v>1.043531994485015</v>
       </c>
       <c r="L15">
-        <v>1.044260440884706</v>
+        <v>1.040097510708553</v>
       </c>
       <c r="M15">
-        <v>1.049485517084164</v>
+        <v>1.046071984306784</v>
       </c>
       <c r="N15">
-        <v>1.047230992059133</v>
+        <v>1.033008022591181</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049025807082177</v>
+        <v>1.046327745871883</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045351377473102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041940792822873</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023846098542011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020260118578534</v>
+        <v>1.013993114405585</v>
       </c>
       <c r="D16">
-        <v>1.03621025453118</v>
+        <v>1.030704678492868</v>
       </c>
       <c r="E16">
-        <v>1.032318113972324</v>
+        <v>1.027495533171789</v>
       </c>
       <c r="F16">
-        <v>1.037462114202069</v>
+        <v>1.033529139859135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058111260567834</v>
+        <v>1.054481824645797</v>
       </c>
       <c r="J16">
-        <v>1.047618050661783</v>
+        <v>1.041587295212953</v>
       </c>
       <c r="K16">
-        <v>1.049920263995663</v>
+        <v>1.044505713804039</v>
       </c>
       <c r="L16">
-        <v>1.04609234424191</v>
+        <v>1.041350206679698</v>
       </c>
       <c r="M16">
-        <v>1.051151599487593</v>
+        <v>1.047283321339165</v>
       </c>
       <c r="N16">
-        <v>1.049105788457193</v>
+        <v>1.033293839424297</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050304232313372</v>
+        <v>1.047246652146652</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046444573292296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042632665785256</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024016745557864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021911397699062</v>
+        <v>1.015340562968531</v>
       </c>
       <c r="D17">
-        <v>1.037303756977687</v>
+        <v>1.031533534983349</v>
       </c>
       <c r="E17">
-        <v>1.033500450055175</v>
+        <v>1.028425348694884</v>
       </c>
       <c r="F17">
-        <v>1.038493885420325</v>
+        <v>1.034358773813697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058622346990421</v>
+        <v>1.054814262932733</v>
       </c>
       <c r="J17">
-        <v>1.048552835486359</v>
+        <v>1.042221727739927</v>
       </c>
       <c r="K17">
-        <v>1.05068787132206</v>
+        <v>1.045010369860168</v>
       </c>
       <c r="L17">
-        <v>1.046945529731157</v>
+        <v>1.041952682418922</v>
       </c>
       <c r="M17">
-        <v>1.051859040067384</v>
+        <v>1.047790044687926</v>
       </c>
       <c r="N17">
-        <v>1.050041900783441</v>
+        <v>1.033464442818439</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050735340426364</v>
+        <v>1.047518791195256</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046989834787107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042992277995871</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024076006691547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022481447610906</v>
+        <v>1.015861390115167</v>
       </c>
       <c r="D18">
-        <v>1.037619377968213</v>
+        <v>1.031804279403223</v>
       </c>
       <c r="E18">
-        <v>1.033711295406307</v>
+        <v>1.028620420028281</v>
       </c>
       <c r="F18">
-        <v>1.038542522545971</v>
+        <v>1.034387395986623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058700516793207</v>
+        <v>1.05486095573092</v>
       </c>
       <c r="J18">
-        <v>1.048721234439175</v>
+        <v>1.042338281196802</v>
       </c>
       <c r="K18">
-        <v>1.0508188790539</v>
+        <v>1.045095718485642</v>
       </c>
       <c r="L18">
-        <v>1.04697243815406</v>
+        <v>1.041962761447819</v>
       </c>
       <c r="M18">
-        <v>1.051727549631816</v>
+        <v>1.047637832024138</v>
       </c>
       <c r="N18">
-        <v>1.050210538882085</v>
+        <v>1.033448734202303</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05039569623171</v>
+        <v>1.047162101468559</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047070988053449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043039970250897</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024013968632818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022098786012737</v>
+        <v>1.015629493243946</v>
       </c>
       <c r="D19">
-        <v>1.037261938779845</v>
+        <v>1.031576844037404</v>
       </c>
       <c r="E19">
-        <v>1.03306595887492</v>
+        <v>1.028143079543566</v>
       </c>
       <c r="F19">
-        <v>1.037711219421156</v>
+        <v>1.033677670961372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058407177018091</v>
+        <v>1.054652841199049</v>
       </c>
       <c r="J19">
-        <v>1.048222254411009</v>
+        <v>1.041983512742246</v>
       </c>
       <c r="K19">
-        <v>1.050405786786373</v>
+        <v>1.044810161518194</v>
       </c>
       <c r="L19">
-        <v>1.046275719477562</v>
+        <v>1.041431050488823</v>
       </c>
       <c r="M19">
-        <v>1.050848050290764</v>
+        <v>1.046877779830182</v>
       </c>
       <c r="N19">
-        <v>1.049710850245046</v>
+        <v>1.033227025077659</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04937776313274</v>
+        <v>1.046237601363535</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046785232749259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042845034056187</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023848425189614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019015481709813</v>
+        <v>1.013274409531796</v>
       </c>
       <c r="D20">
-        <v>1.034978425207858</v>
+        <v>1.0299293646883</v>
       </c>
       <c r="E20">
-        <v>1.030007867398554</v>
+        <v>1.025791963519183</v>
       </c>
       <c r="F20">
-        <v>1.034451071436598</v>
+        <v>1.030954274119461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057055047544623</v>
+        <v>1.053722937483768</v>
       </c>
       <c r="J20">
-        <v>1.045832568543746</v>
+        <v>1.040303044050671</v>
       </c>
       <c r="K20">
-        <v>1.048432895125856</v>
+        <v>1.043465594603058</v>
       </c>
       <c r="L20">
-        <v>1.043542818228615</v>
+        <v>1.03939596261613</v>
       </c>
       <c r="M20">
-        <v>1.047914032954156</v>
+        <v>1.044473824353058</v>
       </c>
       <c r="N20">
-        <v>1.047317770749751</v>
+        <v>1.032406244396656</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04653360097406</v>
+        <v>1.043811056900071</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045394239580121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041898676496267</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023388260508285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013043305637068</v>
+        <v>1.00881834693031</v>
       </c>
       <c r="D21">
-        <v>1.03085643022535</v>
+        <v>1.027124233914381</v>
       </c>
       <c r="E21">
-        <v>1.02515982785974</v>
+        <v>1.022353430359602</v>
       </c>
       <c r="F21">
-        <v>1.029891437091247</v>
+        <v>1.027487339200345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054920455890155</v>
+        <v>1.052468959705146</v>
       </c>
       <c r="J21">
-        <v>1.042005635691144</v>
+        <v>1.037951948084428</v>
       </c>
       <c r="K21">
-        <v>1.045275885625976</v>
+        <v>1.041609327565591</v>
       </c>
       <c r="L21">
-        <v>1.039679718688677</v>
+        <v>1.036923334534126</v>
       </c>
       <c r="M21">
-        <v>1.044327804765824</v>
+        <v>1.041966019755368</v>
       </c>
       <c r="N21">
-        <v>1.043485403213542</v>
+        <v>1.031888442398719</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043654867823284</v>
+        <v>1.041785679073679</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043165373245196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040589781807161</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023065824061206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009241719867278</v>
+        <v>1.005967048007976</v>
       </c>
       <c r="D22">
-        <v>1.028237255134052</v>
+        <v>1.025333658410029</v>
       </c>
       <c r="E22">
-        <v>1.022104984280577</v>
+        <v>1.020187259055136</v>
       </c>
       <c r="F22">
-        <v>1.027047753132769</v>
+        <v>1.025331989339272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053558412870507</v>
+        <v>1.051658415914899</v>
       </c>
       <c r="J22">
-        <v>1.039581576367036</v>
+        <v>1.036447557172984</v>
       </c>
       <c r="K22">
-        <v>1.043269340511963</v>
+        <v>1.040419419548576</v>
       </c>
       <c r="L22">
-        <v>1.037250897995303</v>
+        <v>1.035369136812781</v>
       </c>
       <c r="M22">
-        <v>1.042101779755569</v>
+        <v>1.040417781446202</v>
       </c>
       <c r="N22">
-        <v>1.041057901447151</v>
+        <v>1.03151276601796</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041893123812225</v>
+        <v>1.040560353400652</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041733337479843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039733791540917</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022862772323414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011243478944944</v>
+        <v>1.007419716383559</v>
       </c>
       <c r="D23">
-        <v>1.029607457670462</v>
+        <v>1.026226228799936</v>
       </c>
       <c r="E23">
-        <v>1.023706952015739</v>
+        <v>1.021271435868174</v>
       </c>
       <c r="F23">
-        <v>1.028542817288297</v>
+        <v>1.026426905997957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054270129302261</v>
+        <v>1.052051948609464</v>
       </c>
       <c r="J23">
-        <v>1.040851016447469</v>
+        <v>1.037186581421871</v>
       </c>
       <c r="K23">
-        <v>1.044314573240678</v>
+        <v>1.04099423711573</v>
       </c>
       <c r="L23">
-        <v>1.038520670427187</v>
+        <v>1.036129623798446</v>
       </c>
       <c r="M23">
-        <v>1.04326904991313</v>
+        <v>1.041191285745482</v>
       </c>
       <c r="N23">
-        <v>1.042329144278105</v>
+        <v>1.031610071676919</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042816937509415</v>
+        <v>1.041172529880608</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042462811016063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040129707340176</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022938972813116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018970693360313</v>
+        <v>1.013252200072196</v>
       </c>
       <c r="D24">
-        <v>1.034921160548359</v>
+        <v>1.029890982464539</v>
       </c>
       <c r="E24">
-        <v>1.029916314164112</v>
+        <v>1.025727112574971</v>
       </c>
       <c r="F24">
-        <v>1.03434005352143</v>
+        <v>1.030862505749376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057007198741509</v>
+        <v>1.053687583697219</v>
       </c>
       <c r="J24">
-        <v>1.045757543568784</v>
+        <v>1.04024949082015</v>
       </c>
       <c r="K24">
-        <v>1.048361571952783</v>
+        <v>1.043412753725884</v>
       </c>
       <c r="L24">
-        <v>1.043437673143925</v>
+        <v>1.039317008135345</v>
       </c>
       <c r="M24">
-        <v>1.047789812081461</v>
+        <v>1.044368483797416</v>
       </c>
       <c r="N24">
-        <v>1.047242639230718</v>
+        <v>1.032368392877824</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046394797437798</v>
+        <v>1.043687062408522</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0453167524215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041831490536837</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023354501637449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027570621952519</v>
+        <v>1.020524072685688</v>
       </c>
       <c r="D25">
-        <v>1.04085348854431</v>
+        <v>1.034629665094608</v>
       </c>
       <c r="E25">
-        <v>1.036855945617516</v>
+        <v>1.031503202905643</v>
       </c>
       <c r="F25">
-        <v>1.040838041976762</v>
+        <v>1.036445231291305</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060008732012006</v>
+        <v>1.055896731592218</v>
       </c>
       <c r="J25">
-        <v>1.051204462497948</v>
+        <v>1.044379926020921</v>
       </c>
       <c r="K25">
-        <v>1.052849061447106</v>
+        <v>1.046713173909108</v>
       </c>
       <c r="L25">
-        <v>1.048907846167731</v>
+        <v>1.043631392216699</v>
       </c>
       <c r="M25">
-        <v>1.052833831478812</v>
+        <v>1.048502950161441</v>
       </c>
       <c r="N25">
-        <v>1.052697293409532</v>
+        <v>1.034589743255113</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050386757531319</v>
+        <v>1.046959193630836</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04848672655318</v>
+        <v>1.044161861871539</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024130638465536</v>
       </c>
     </row>
   </sheetData>
